--- a/AMULONG, GERONIMO.xlsx
+++ b/AMULONG, GERONIMO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14204683-3959-4AD0-B10A-C79F84BDBDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612F07FD-4AF6-4DE9-BB5C-3EC8C038EB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,6 +647,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,6 +850,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -851,12 +863,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -2553,7 +2559,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2600,7 +2606,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A1D8C08-EA5F-4CFB-B3F2-5F53958293F6}" name="Table13" displayName="Table13" ref="A8:K77" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A1D8C08-EA5F-4CFB-B3F2-5F53958293F6}" name="Table13" displayName="Table13" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{2434E035-034A-4C0A-8594-62557CF6BF9F}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{C42B0E3C-44A9-45C8-94F4-B98325109E94}" name="PARTICULARS" dataDxfId="9"/>
@@ -2918,7 +2924,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2950,9 +2956,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3113,7 +3119,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3123,7 +3129,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4466,7 +4472,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4485,15 +4491,19 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44985</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4501,15 +4511,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>45016</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4517,15 +4531,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45046</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4533,15 +4551,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45077</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4549,15 +4571,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45107</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4565,7 +4591,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45138</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4581,7 +4609,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45169</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4597,7 +4627,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45199</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4613,7 +4645,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45230</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4629,7 +4663,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4645,7 +4681,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4661,7 +4699,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45322</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4677,7 +4717,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45351</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4693,7 +4735,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45382</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4709,7 +4753,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45412</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -4725,7 +4771,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45443</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -4741,7 +4789,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45473</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4757,7 +4807,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45504</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4773,7 +4825,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45535</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4789,7 +4843,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45565</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -4805,7 +4861,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45596</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -4821,7 +4879,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45626</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -4837,7 +4897,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45657</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5393,12 +5455,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K77"/>
+  <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A11" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A14" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5569,7 +5631,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>176.25</v>
+        <v>175.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5752,7 +5814,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -5769,12 +5831,16 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="20"/>
+      <c r="A19" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="39">
+        <v>3</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
       <c r="G19" s="13" t="str">
@@ -5784,19 +5850,17 @@
       <c r="H19" s="39"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="A20" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="20"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="39">
-        <v>3</v>
-      </c>
+      <c r="D20" s="39"/>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13" t="str">
@@ -5806,13 +5870,15 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20" t="s">
-        <v>63</v>
-      </c>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
@@ -5821,10 +5887,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="60">
+        <v>45106</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
@@ -6691,50 +6761,34 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="43"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
+      <c r="F76" s="15"/>
+      <c r="G76" s="42" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H76" s="39"/>
+      <c r="H76" s="43"/>
       <c r="I76" s="9"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="41"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H77" s="43"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="15"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{9A68AE10-7817-4AB0-BD1F-FE53B2F408E7}">

--- a/AMULONG, GERONIMO.xlsx
+++ b/AMULONG, GERONIMO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612F07FD-4AF6-4DE9-BB5C-3EC8C038EB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E7EE5F-1AFC-4604-9AE2-4A860B7D58F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>7/22,25/2023</t>
   </si>
 </sst>
 </file>
@@ -614,6 +617,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,9 +652,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,7 +885,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1124,7 +1126,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2576,25 +2577,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2606,25 +2607,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A1D8C08-EA5F-4CFB-B3F2-5F53958293F6}" name="Table13" displayName="Table13" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2434E035-034A-4C0A-8594-62557CF6BF9F}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{C42B0E3C-44A9-45C8-94F4-B98325109E94}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{6FD050B1-BD91-4FAD-8326-41986905C4C5}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{B2734445-3755-4A22-A316-2F13EF9A230C}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{0DBE7C72-BFEC-4F3F-B240-CDF2E96272CE}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C4A542DB-D7AC-48C1-8172-8937EE31E491}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{369C0894-8E04-496A-9DF0-D9F1DFCE6E78}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DE5A2BDC-F2A1-472D-8216-81749E776E12}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{2A6A894E-F1DD-4104-86B8-9A62401F949A}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F3A4B605-E3E4-43E8-92A2-627020EEF6CE}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{21E614DB-555A-443B-8DAC-7E451BA20568}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2931,7 +2932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2949,16 +2950,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="3984" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76:C81"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2967,11 +2968,11 @@
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
@@ -2980,62 +2981,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3061,18 +3062,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3119,7 +3120,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3129,7 +3130,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4595,13 +4596,15 @@
         <v>45138</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -5425,10 +5428,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5451,16 +5454,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBBAF60-79D8-4866-929C-D334ED8C3166}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A14" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A14" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5469,11 +5472,11 @@
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
@@ -5482,62 +5485,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5563,18 +5566,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5631,7 +5634,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>175.25</v>
+        <v>172.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5892,13 +5895,15 @@
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="60">
+      <c r="K21" s="49">
         <v>45106</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
@@ -5907,14 +5912,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="39">
+        <v>1</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="49">
+        <v>45118</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="49">
+        <v>45133</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
@@ -5923,10 +5934,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="39">
+        <v>2</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
@@ -6791,10 +6806,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{9A68AE10-7817-4AB0-BD1F-FE53B2F408E7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{1ACE50DC-A83A-4FBF-95BF-DFAE6E2A4CE6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6817,7 +6832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6826,8 +6841,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -6839,17 +6854,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -6928,12 +6943,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/AMULONG, GERONIMO.xlsx
+++ b/AMULONG, GERONIMO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E7EE5F-1AFC-4604-9AE2-4A860B7D58F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -240,11 +239,29 @@
   <si>
     <t>7/22,25/2023</t>
   </si>
+  <si>
+    <t>8/10-12/2023</t>
+  </si>
+  <si>
+    <t>8/21,23,24,25/2023</t>
+  </si>
+  <si>
+    <t>8/16-18/2023</t>
+  </si>
+  <si>
+    <t>9/11,13,14/2023</t>
+  </si>
+  <si>
+    <t>8/28,20,31 - 9/1/2023</t>
+  </si>
+  <si>
+    <t>9/22-25/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1173,7 +1190,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1216,7 +1233,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1280,7 +1297,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1357,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1423,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,7 +1486,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +1584,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1643,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1708,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1751,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,7 +1826,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +2012,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2078,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,7 +2136,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2202,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2258,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2333,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2376,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2442,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2498,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2577,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2577,25 +2594,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2607,25 +2624,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2932,7 +2949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2942,7 +2959,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2950,34 +2967,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3984" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="3990" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81:C82"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2998,7 +3015,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3016,7 +3033,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3038,7 +3055,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3046,7 +3063,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3059,7 +3076,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3076,7 +3093,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3111,7 +3128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3120,7 +3137,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3130,12 +3147,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3157,7 +3174,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3177,7 +3194,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3197,7 +3214,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3217,7 +3234,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3237,7 +3254,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3257,7 +3274,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3277,7 +3294,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3297,7 +3314,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3317,7 +3334,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3337,7 +3354,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3357,7 +3374,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3377,7 +3394,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3401,7 +3418,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>49</v>
       </c>
@@ -3419,7 +3436,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3439,7 +3456,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3459,7 +3476,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3479,7 +3496,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3499,7 +3516,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3519,7 +3536,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3539,7 +3556,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3559,7 +3576,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3579,7 +3596,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3599,7 +3616,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3619,7 +3636,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3639,7 +3656,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3663,7 +3680,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>52</v>
       </c>
@@ -3681,7 +3698,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3701,7 +3718,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3721,7 +3738,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3747,7 +3764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3767,7 +3784,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3787,7 +3804,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3807,7 +3824,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3827,7 +3844,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3847,7 +3864,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3867,7 +3884,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3887,7 +3904,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3907,7 +3924,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3927,7 +3944,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>60</v>
       </c>
@@ -3945,7 +3962,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -3965,7 +3982,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -3985,7 +4002,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4005,7 +4022,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4025,7 +4042,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4045,7 +4062,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4065,7 +4082,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4085,7 +4102,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4105,7 +4122,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4125,7 +4142,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4145,7 +4162,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4165,7 +4182,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4189,7 +4206,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>59</v>
       </c>
@@ -4207,7 +4224,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4227,7 +4244,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4247,7 +4264,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4267,7 +4284,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4287,7 +4304,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4307,7 +4324,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4327,7 +4344,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4347,7 +4364,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4373,7 +4390,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4393,7 +4410,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4413,7 +4430,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4433,7 +4450,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4453,7 +4470,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>64</v>
       </c>
@@ -4471,7 +4488,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -4491,7 +4508,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4511,7 +4528,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -4531,7 +4548,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -4551,7 +4568,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -4571,7 +4588,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45107</v>
       </c>
@@ -4591,7 +4608,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45138</v>
       </c>
@@ -4611,43 +4628,47 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45169</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45199</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45230</v>
       </c>
@@ -4665,7 +4686,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45260</v>
       </c>
@@ -4683,7 +4704,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45291</v>
       </c>
@@ -4701,7 +4722,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45322</v>
       </c>
@@ -4719,7 +4740,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45351</v>
       </c>
@@ -4737,7 +4758,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45382</v>
       </c>
@@ -4755,7 +4776,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45412</v>
       </c>
@@ -4773,7 +4794,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45443</v>
       </c>
@@ -4791,7 +4812,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45473</v>
       </c>
@@ -4809,7 +4830,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45504</v>
       </c>
@@ -4827,7 +4848,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45535</v>
       </c>
@@ -4845,7 +4866,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45565</v>
       </c>
@@ -4863,7 +4884,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45596</v>
       </c>
@@ -4881,7 +4902,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45626</v>
       </c>
@@ -4899,7 +4920,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45657</v>
       </c>
@@ -4917,7 +4938,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4933,7 +4954,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4949,7 +4970,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4965,7 +4986,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4981,7 +5002,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4997,7 +5018,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5013,7 +5034,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5029,7 +5050,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5045,7 +5066,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5061,7 +5082,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5077,7 +5098,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5093,7 +5114,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5109,7 +5130,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5125,7 +5146,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5141,7 +5162,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5157,7 +5178,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5173,7 +5194,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5189,7 +5210,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5205,7 +5226,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5221,7 +5242,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5237,7 +5258,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5253,7 +5274,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5269,7 +5290,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5285,7 +5306,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5301,7 +5322,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5317,7 +5338,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5333,7 +5354,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5349,7 +5370,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5365,7 +5386,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5381,7 +5402,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5397,7 +5418,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -5428,10 +5449,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5454,34 +5475,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A14" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A17" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5502,7 +5523,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5520,7 +5541,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5542,7 +5563,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5550,7 +5571,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5563,7 +5584,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -5580,7 +5601,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5615,7 +5636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5624,7 +5645,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>90.875</v>
+        <v>87.875</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5634,12 +5655,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>172.25</v>
+        <v>152.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5661,7 +5682,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5685,7 +5706,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>49</v>
       </c>
@@ -5703,7 +5724,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43556</v>
       </c>
@@ -5727,7 +5748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>52</v>
       </c>
@@ -5745,7 +5766,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43862</v>
       </c>
@@ -5767,7 +5788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>44013</v>
       </c>
@@ -5791,7 +5812,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>44075</v>
       </c>
@@ -5815,7 +5836,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>59</v>
       </c>
@@ -5833,7 +5854,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>44866</v>
       </c>
@@ -5857,7 +5878,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>64</v>
       </c>
@@ -5875,7 +5896,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>45108</v>
       </c>
@@ -5899,7 +5920,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>65</v>
@@ -5921,7 +5942,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="49">
         <v>45133</v>
@@ -5943,9 +5964,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>45153</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
@@ -5954,14 +5979,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>3</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
@@ -5970,14 +6001,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="39">
+        <v>4</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
@@ -5986,16 +6023,26 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H26" s="39"/>
+      <c r="H26" s="39">
+        <v>3</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="20"/>
+      <c r="K26" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="39"/>
+      <c r="D27" s="39">
+        <v>3</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13" t="str">
@@ -6005,11 +6052,15 @@
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
@@ -6018,14 +6069,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="39">
+        <v>4</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
-      <c r="B29" s="20"/>
+      <c r="B29" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
@@ -6034,14 +6091,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="39">
+        <v>1</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="49">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
@@ -6050,14 +6113,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="39">
+        <v>4</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
@@ -6066,12 +6135,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="39">
+        <v>1</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="49">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6087,7 +6160,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6103,7 +6176,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6119,7 +6192,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6135,7 +6208,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6151,7 +6224,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6167,7 +6240,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6183,7 +6256,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6199,7 +6272,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6215,7 +6288,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6231,7 +6304,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6247,7 +6320,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6263,7 +6336,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6279,7 +6352,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6295,7 +6368,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6311,7 +6384,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6327,7 +6400,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6343,7 +6416,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6359,7 +6432,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6375,7 +6448,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6391,7 +6464,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6407,7 +6480,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6423,7 +6496,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6439,7 +6512,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6455,7 +6528,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6471,7 +6544,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6487,7 +6560,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6503,7 +6576,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6519,7 +6592,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6535,7 +6608,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6551,7 +6624,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6567,7 +6640,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6583,7 +6656,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6599,7 +6672,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6615,7 +6688,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6631,7 +6704,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6647,7 +6720,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6663,7 +6736,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6679,7 +6752,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6695,7 +6768,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6711,7 +6784,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6727,7 +6800,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6743,7 +6816,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6759,7 +6832,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6775,7 +6848,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="15"/>
       <c r="C76" s="42"/>
@@ -6806,10 +6879,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6832,28 +6905,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6866,7 +6939,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6895,7 +6968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>103.875</v>
       </c>
@@ -6919,17 +6992,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6950,7 +7023,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6977,7 +7050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7003,7 +7076,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7029,7 +7102,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7055,7 +7128,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7081,7 +7154,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7107,7 +7180,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7133,7 +7206,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7159,7 +7232,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7179,7 +7252,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7199,7 +7272,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7219,7 +7292,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7240,7 +7313,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7261,7 +7334,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7282,7 +7355,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7303,7 +7376,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7324,7 +7397,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7345,7 +7418,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7366,7 +7439,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7387,7 +7460,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7408,7 +7481,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7429,7 +7502,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7450,7 +7523,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7471,7 +7544,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7492,7 +7565,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7513,7 +7586,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7534,7 +7607,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7555,7 +7628,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7576,7 +7649,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7597,7 +7670,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7618,7 +7691,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7639,7 +7712,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7648,7 +7721,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7657,7 +7730,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7666,7 +7739,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7675,7 +7748,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7684,7 +7757,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7693,7 +7766,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7702,7 +7775,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7711,7 +7784,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7720,7 +7793,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7729,7 +7802,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7738,7 +7811,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7747,7 +7820,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7756,7 +7829,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7765,7 +7838,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7774,7 +7847,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7783,7 +7856,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7792,7 +7865,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7801,7 +7874,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7810,7 +7883,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7819,7 +7892,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7828,7 +7901,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7837,7 +7910,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7846,7 +7919,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7855,7 +7928,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7864,7 +7937,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7873,7 +7946,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7882,7 +7955,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7891,7 +7964,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7900,7 +7973,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
